--- a/data-raw/isotope.standards.xlsx
+++ b/data-raw/isotope.standards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwh/Dropbox/Documents/RPackages/HEEL/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09658C74-009D-1447-A418-931224B6B353}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67D4F0-12F2-8A49-BCB6-0774B529C756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="4540" windowWidth="45380" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="78">
   <si>
     <t>Name</t>
   </si>
@@ -265,9 +265,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -309,13 +311,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +640,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L57" sqref="L57"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -733,7 +740,7 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <v>1.1180000000000001E-2</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -789,17 +796,17 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <f>1/272</f>
         <v>3.6764705882352941E-3</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="7">
         <v>75.52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -814,11 +821,12 @@
       <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
+      <c r="N3">
+        <v>23.8</v>
+      </c>
+      <c r="O3" s="5">
+        <f>$O$4*(N3/1000+1)</f>
+        <v>2.0528941764033338E-3</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
@@ -826,7 +834,7 @@
       <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="7">
         <v>23.14</v>
       </c>
       <c r="S3" s="1" t="s">
@@ -858,13 +866,13 @@
       <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -882,24 +890,24 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="8">
         <f>0.0020004/0.9976206</f>
         <v>2.0051711041251551E-3</v>
       </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <f>0.000379/0.9976206</f>
         <v>3.7990394344302836E-4</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="10">
         <f>0.00015574/0.99984426</f>
         <v>1.5576425872565393E-4</v>
       </c>
@@ -926,13 +934,13 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -941,7 +949,7 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="9">
         <v>4.3992910000000003E-2</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -950,7 +958,7 @@
       <c r="N5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -959,13 +967,13 @@
       <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="T5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -988,17 +996,17 @@
       <c r="E6" s="1">
         <v>180</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <f>$F$3*(E6/1000+1)</f>
         <v>4.3382352941176471E-3</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="7">
         <v>16.48</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1016,7 +1024,7 @@
       <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P6" s="1" t="s">
@@ -1025,13 +1033,13 @@
       <c r="Q6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="7">
         <v>56.472000000000001</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1054,21 +1062,21 @@
       <c r="E7" s="1">
         <v>-4.5199999999999996</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <f t="shared" ref="F7:F8" si="0">$F$3*(E7/1000+1)</f>
         <v>3.6598529411764709E-3</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="7">
         <v>9.52</v>
       </c>
       <c r="H7" s="1">
         <v>-26.39</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="6">
         <f>$I$2*(H7/1000+1)</f>
         <v>1.08849598E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="3">
         <v>40.817</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1083,7 +1091,7 @@
       <c r="N7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1092,13 +1100,13 @@
       <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1121,21 +1129,21 @@
       <c r="E8" s="1">
         <v>47.57</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>3.8513602941176468E-3</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="7">
         <v>9.52</v>
       </c>
       <c r="H8" s="1">
         <v>37.630000000000003</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <f t="shared" ref="I8:I51" si="1">$I$2*(H8/1000+1)</f>
         <v>1.1600703400000001E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="3">
         <v>40.817</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -1150,7 +1158,7 @@
       <c r="N8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -1159,13 +1167,13 @@
       <c r="Q8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T8" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -1188,20 +1196,20 @@
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="1">
         <v>-32.15</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>1.0820563E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="3">
         <v>42.106000000000002</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -1216,7 +1224,7 @@
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P9" s="1" t="s">
@@ -1225,16 +1233,16 @@
       <c r="Q9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="7">
         <v>51.414999999999999</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="3">
         <v>6.4779999999999998</v>
       </c>
     </row>
@@ -1254,20 +1262,20 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1">
         <v>-10.45</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>1.1063169000000001E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="3">
         <v>42.106000000000002</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1282,7 +1290,7 @@
       <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
@@ -1291,16 +1299,16 @@
       <c r="Q10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="7">
         <v>51.414999999999999</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="1">
+      <c r="T10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U10" s="3">
         <v>6.4779999999999998</v>
       </c>
     </row>
@@ -1320,21 +1328,21 @@
       <c r="E11" s="1">
         <v>2</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="5">
         <f t="shared" ref="F11" si="2">$F$3*(E11/1000+1)</f>
         <v>3.6838235294117646E-3</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="7">
         <v>2.9649999999999999</v>
       </c>
       <c r="H11" s="1">
         <v>-26.1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>1.0888202000000001E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="3">
         <v>45.5</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -1343,13 +1351,13 @@
       <c r="L11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>0.2</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
@@ -1358,16 +1366,16 @@
       <c r="Q11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="T11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1387,19 +1395,19 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="1">
         <v>1.95</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="6">
         <v>1.12021E-2</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>12</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -1414,7 +1422,7 @@
       <c r="N12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -1423,16 +1431,16 @@
       <c r="Q12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="7">
         <v>47.957000000000001</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="1" t="s">
+      <c r="T12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1452,20 +1460,20 @@
       <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1">
         <v>-46.6</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>1.0659012000000001E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="3">
         <v>16.254999999999999</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -1480,7 +1488,7 @@
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
@@ -1489,16 +1497,16 @@
       <c r="Q13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="7">
         <v>64.957999999999998</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="1" t="s">
+      <c r="T13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1518,21 +1526,21 @@
       <c r="E14" s="1">
         <v>-4.5999999999999996</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="5">
         <f t="shared" ref="F14:F34" si="3">$F$3*(E14/1000+1)</f>
         <v>3.6595588235294116E-3</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="7">
         <v>9.52</v>
       </c>
       <c r="H14" s="1">
         <v>-28.3</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>1.0863606000000001E-2</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>40.817</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -1547,7 +1555,7 @@
       <c r="N14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P14" s="1" t="s">
@@ -1556,16 +1564,16 @@
       <c r="Q14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" s="1" t="s">
+      <c r="T14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1585,21 +1593,21 @@
       <c r="E15" s="1">
         <v>-5.2</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="5">
         <f t="shared" si="3"/>
         <v>3.6573529411764705E-3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="7">
         <v>9.52</v>
       </c>
       <c r="H15" s="1">
         <v>-13.7</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="6">
         <f t="shared" si="1"/>
         <v>1.1026834000000001E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="3">
         <v>40.817</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -1614,7 +1622,7 @@
       <c r="N15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P15" s="1" t="s">
@@ -1623,16 +1631,16 @@
       <c r="Q15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="T15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1652,21 +1660,21 @@
       <c r="E16" s="1">
         <v>11.3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>3.7180147058823534E-3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="7">
         <v>11.8</v>
       </c>
       <c r="H16" s="1">
         <v>-21.3</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="6">
         <f t="shared" si="1"/>
         <v>1.0941866000000001E-2</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <v>45.7</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -1681,7 +1689,7 @@
       <c r="N16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -1690,16 +1698,16 @@
       <c r="Q16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" s="1" t="s">
+      <c r="T16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1719,21 +1727,21 @@
       <c r="E17" s="1">
         <v>-0.3</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>3.6753676470588238E-3</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="7">
         <v>2</v>
       </c>
       <c r="H17" s="1">
         <v>-26.5</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="6">
         <f t="shared" si="1"/>
         <v>1.0883730000000001E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="3">
         <v>39</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -1748,7 +1756,7 @@
       <c r="N17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P17" s="1" t="s">
@@ -1757,16 +1765,16 @@
       <c r="Q17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="T17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1786,21 +1794,21 @@
       <c r="E18" s="1">
         <v>1.3</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>3.6812500000000001E-3</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="7">
         <v>8.8000000000000007</v>
       </c>
       <c r="H18" s="1">
         <v>-9.6</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
         <v>1.1072672E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="3">
         <v>51.9</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -1815,7 +1823,7 @@
       <c r="N18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P18" s="1" t="s">
@@ -1824,16 +1832,16 @@
       <c r="Q18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="1" t="s">
+      <c r="T18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1850,24 +1858,24 @@
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>-1.2104619999999999</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>3.6720203602941177E-3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="7">
         <v>15.721</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>-19.3934</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
         <v>1.0963181788000001E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="3">
         <v>40.442999999999998</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -1882,7 +1890,7 @@
       <c r="N19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P19" s="1" t="s">
@@ -1891,16 +1899,16 @@
       <c r="Q19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="7">
         <v>35.915999999999997</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" s="1">
+      <c r="T19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="3">
         <v>7.9189999999999996</v>
       </c>
     </row>
@@ -1917,24 +1925,24 @@
       <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>-9.9298600000000015</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>3.63996375E-3</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="7">
         <v>10.523</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <v>-21.766460000000002</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="6">
         <f t="shared" si="1"/>
         <v>1.0936650977200001E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="3">
         <v>36.094999999999999</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -1949,7 +1957,7 @@
       <c r="N20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P20" s="1" t="s">
@@ -1958,16 +1966,16 @@
       <c r="Q20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="7">
         <v>48.081000000000003</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20" s="1">
+      <c r="T20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="3">
         <v>5.3010000000000002</v>
       </c>
     </row>
@@ -1987,19 +1995,19 @@
       <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="7">
         <v>9.52</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="1">
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3">
         <v>40.817</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -2014,7 +2022,7 @@
       <c r="N21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P21" s="1" t="s">
@@ -2023,16 +2031,16 @@
       <c r="Q21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="7">
         <v>43.497999999999998</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="1">
+      <c r="T21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="3">
         <v>6.1660000000000004</v>
       </c>
     </row>
@@ -2049,24 +2057,24 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1.7675399999999999</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>3.6829688970588231E-3</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="7">
         <v>18.658999999999999</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>-45.725900000000003</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="6">
         <f t="shared" si="1"/>
         <v>1.0668784438000001E-2</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="3">
         <v>32</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -2081,7 +2089,7 @@
       <c r="N22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P22" s="1" t="s">
@@ -2090,16 +2098,16 @@
       <c r="Q22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="7">
         <v>42.627000000000002</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="1">
+      <c r="T22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="3">
         <v>6.7140000000000004</v>
       </c>
     </row>
@@ -2116,24 +2124,24 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>-0.94016599999999995</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="5">
         <f t="shared" si="3"/>
         <v>3.6730140955882353E-3</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="7">
         <v>27.082999999999998</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>-9.4759599999999988</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="6">
         <f t="shared" si="1"/>
         <v>1.1074058767200001E-2</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="3">
         <v>46.447000000000003</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -2148,7 +2156,7 @@
       <c r="N23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -2157,16 +2165,16 @@
       <c r="Q23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="7">
         <v>20.623999999999999</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="T23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="3">
         <v>5.8470000000000004</v>
       </c>
     </row>
@@ -2183,24 +2191,24 @@
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>-2.3436166666666662</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>3.6678543504901958E-3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="7">
         <v>10.678000000000001</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>-13.326050000000002</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="6">
         <f t="shared" si="1"/>
         <v>1.1031014761000001E-2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="3">
         <v>54.938000000000002</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -2215,7 +2223,7 @@
       <c r="N24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -2224,16 +2232,16 @@
       <c r="Q24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="7">
         <v>24.393999999999998</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="T24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
@@ -2250,24 +2258,24 @@
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.35011250000000005</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>3.6777577665441179E-3</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="7">
         <v>10.678000000000001</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>-13.493425</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="6">
         <f t="shared" si="1"/>
         <v>1.1029143508500001E-2</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="3">
         <v>54.938000000000002</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -2282,7 +2290,7 @@
       <c r="N25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P25" s="1" t="s">
@@ -2291,16 +2299,16 @@
       <c r="Q25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="7">
         <v>24.393999999999998</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="1">
+      <c r="T25" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
@@ -2317,24 +2325,24 @@
       <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>0.78881200000000007</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>3.6793706323529408E-3</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="7">
         <v>19.163</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>-28.00938</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="6">
         <f t="shared" si="1"/>
         <v>1.0866855131600002E-2</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="3">
         <v>49.295999999999999</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -2349,7 +2357,7 @@
       <c r="N26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -2358,16 +2366,16 @@
       <c r="Q26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="7">
         <v>21.888999999999999</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="1">
+      <c r="T26" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="3">
         <v>9.6530000000000005</v>
       </c>
     </row>
@@ -2384,24 +2392,24 @@
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>-1.5775499999999998</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>3.6706707720588231E-3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="7">
         <v>9.3872</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>-33.4637125</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="6">
         <f>$I$2*(H27/1000+1)</f>
         <v>1.0805875694250001E-2</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="3">
         <v>40.247300000000003</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -2416,7 +2424,7 @@
       <c r="N27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -2425,16 +2433,16 @@
       <c r="Q27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="7">
         <v>21.4453</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="T27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="3">
         <v>7.4306000000000001</v>
       </c>
     </row>
@@ -2451,24 +2459,24 @@
       <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>14.163140000000002</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>3.7285409558823527E-3</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="7">
         <v>10.678000000000001</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>-27.616899999999998</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="6">
         <f t="shared" si="1"/>
         <v>1.0871243058000002E-2</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="3">
         <v>54.938000000000002</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -2483,7 +2491,7 @@
       <c r="N28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -2492,16 +2500,16 @@
       <c r="Q28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="7">
         <v>24.393999999999998</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="T28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
@@ -2518,24 +2526,24 @@
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>2.1924000000000001</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>3.6845308823529412E-3</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="7">
         <v>8.4792000000000005</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>-11.7986</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="6">
         <f t="shared" si="1"/>
         <v>1.1048091652E-2</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="3">
         <v>65.437899999999999</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -2550,7 +2558,7 @@
       <c r="N29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P29" s="1" t="s">
@@ -2559,16 +2567,16 @@
       <c r="Q29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="7">
         <v>19.370999999999999</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="1">
+      <c r="T29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="3">
         <v>6.7119</v>
       </c>
     </row>
@@ -2585,24 +2593,24 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>1.5505800000000001</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="5">
         <f t="shared" si="3"/>
         <v>3.68217125E-3</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="7">
         <v>12.165900000000001</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>-11.291300000000001</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="6">
         <f t="shared" si="1"/>
         <v>1.1053763266000001E-2</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="3">
         <v>52.161299999999997</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -2617,7 +2625,7 @@
       <c r="N30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P30" s="1" t="s">
@@ -2626,16 +2634,16 @@
       <c r="Q30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="7">
         <v>27.793500000000002</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U30" s="1">
+      <c r="T30" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="3">
         <v>7.8792999999999997</v>
       </c>
     </row>
@@ -2652,24 +2660,24 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>-1.7516750000000001</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="5">
         <f t="shared" si="3"/>
         <v>3.6700306066176471E-3</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="7">
         <v>13.327999999999999</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>-7.8926999999999996</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="6">
         <f t="shared" si="1"/>
         <v>1.1091759614000002E-2</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="3">
         <v>34.286099999999998</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -2684,7 +2692,7 @@
       <c r="N31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P31" s="1" t="s">
@@ -2693,16 +2701,16 @@
       <c r="Q31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="7">
         <v>45.6723</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U31" s="1">
+      <c r="T31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="3">
         <v>6.7137000000000002</v>
       </c>
     </row>
@@ -2719,24 +2727,24 @@
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>4.8876249999999996E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="5">
         <f t="shared" si="3"/>
         <v>3.6766502803308823E-3</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="7">
         <v>11.758599999999999</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <v>-11.36345</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="6">
         <f t="shared" si="1"/>
         <v>1.1052956629000001E-2</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="3">
         <v>40.331699999999998</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -2751,7 +2759,7 @@
       <c r="N32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P32" s="1" t="s">
@@ -2760,16 +2768,16 @@
       <c r="Q32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="7">
         <v>40.2943</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="T32" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="3">
         <v>7.6154000000000002</v>
       </c>
     </row>
@@ -2786,24 +2794,24 @@
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <v>3.2947499999999996</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="5">
         <f t="shared" si="3"/>
         <v>3.6885836397058825E-3</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="7">
         <v>7.7305000000000001</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <v>-22.567500000000003</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="6">
         <f t="shared" si="1"/>
         <v>1.0927695350000001E-2</v>
       </c>
-      <c r="J33" s="1">
+      <c r="J33" s="3">
         <v>59.659599999999998</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2818,7 +2826,7 @@
       <c r="N33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P33" s="1" t="s">
@@ -2827,16 +2835,16 @@
       <c r="Q33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R33" s="7">
         <v>26.4907</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U33" s="1">
+      <c r="T33" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" s="3">
         <v>6.1192000000000002</v>
       </c>
     </row>
@@ -2853,24 +2861,24 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <v>0.36097499999999999</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="5">
         <f t="shared" si="3"/>
         <v>3.6777977022058824E-3</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="7">
         <v>11.9566</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>-12.276412499999999</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="6">
         <f t="shared" si="1"/>
         <v>1.1042749708250001E-2</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="3">
         <v>51.2637</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -2885,7 +2893,7 @@
       <c r="N34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -2894,16 +2902,16 @@
       <c r="Q34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R34" s="7">
         <v>27.315200000000001</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U34" s="1">
+      <c r="T34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="3">
         <v>9.4644999999999992</v>
       </c>
     </row>
@@ -2929,10 +2937,10 @@
       <c r="G35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <v>-30.561609999999995</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="6">
         <f t="shared" si="1"/>
         <v>1.08383212002E-2</v>
       </c>
@@ -2951,7 +2959,7 @@
       <c r="N35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P35" s="1" t="s">
@@ -2966,7 +2974,7 @@
       <c r="S35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="T35" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U35" s="1" t="s">
@@ -2995,10 +3003,10 @@
       <c r="G36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <v>-29.274849999999997</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="6">
         <f t="shared" si="1"/>
         <v>1.0852707177000001E-2</v>
       </c>
@@ -3017,7 +3025,7 @@
       <c r="N36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P36" s="1" t="s">
@@ -3032,7 +3040,7 @@
       <c r="S36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U36" s="1" t="s">
@@ -3061,10 +3069,10 @@
       <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <v>-28.428689999999996</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="6">
         <f t="shared" si="1"/>
         <v>1.0862167245800001E-2</v>
       </c>
@@ -3083,7 +3091,7 @@
       <c r="N37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P37" s="1" t="s">
@@ -3098,7 +3106,7 @@
       <c r="S37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="1" t="s">
+      <c r="T37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U37" s="1" t="s">
@@ -3127,10 +3135,10 @@
       <c r="G38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <v>-26.576659999999997</v>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="6">
         <f t="shared" si="1"/>
         <v>1.08828729412E-2</v>
       </c>
@@ -3149,7 +3157,7 @@
       <c r="N38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P38" s="1" t="s">
@@ -3164,7 +3172,7 @@
       <c r="S38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U38" s="1" t="s">
@@ -3196,7 +3204,7 @@
       <c r="H39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -3214,7 +3222,7 @@
       <c r="N39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P39" s="1" t="s">
@@ -3229,7 +3237,7 @@
       <c r="S39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T39" s="1" t="s">
+      <c r="T39" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U39" s="1" t="s">
@@ -3258,10 +3266,10 @@
       <c r="G40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="2">
         <v>-29.848129999999998</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="6">
         <f t="shared" si="1"/>
         <v>1.0846297906600001E-2</v>
       </c>
@@ -3280,7 +3288,7 @@
       <c r="N40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P40" s="1" t="s">
@@ -3295,7 +3303,7 @@
       <c r="S40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T40" s="1" t="s">
+      <c r="T40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U40" s="1" t="s">
@@ -3324,10 +3332,10 @@
       <c r="G41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="2">
         <v>-28.465210000000003</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="6">
         <f t="shared" si="1"/>
         <v>1.08617589522E-2</v>
       </c>
@@ -3346,7 +3354,7 @@
       <c r="N41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P41" s="1" t="s">
@@ -3361,7 +3369,7 @@
       <c r="S41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T41" s="1" t="s">
+      <c r="T41" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U41" s="1" t="s">
@@ -3390,10 +3398,10 @@
       <c r="G42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="2">
         <v>-31.612680000000001</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="6">
         <f t="shared" si="1"/>
         <v>1.0826570237599999E-2</v>
       </c>
@@ -3412,7 +3420,7 @@
       <c r="N42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P42" s="1" t="s">
@@ -3427,7 +3435,7 @@
       <c r="S42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="1" t="s">
+      <c r="T42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U42" s="1" t="s">
@@ -3456,10 +3464,10 @@
       <c r="G43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="2">
         <v>-12.954180000000003</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="6">
         <f t="shared" si="1"/>
         <v>1.1035172267600001E-2</v>
       </c>
@@ -3478,7 +3486,7 @@
       <c r="N43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P43" s="1" t="s">
@@ -3493,7 +3501,7 @@
       <c r="S43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T43" s="1" t="s">
+      <c r="T43" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U43" s="1" t="s">
@@ -3522,10 +3530,10 @@
       <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="2">
         <v>-11.805139999999998</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="6">
         <f t="shared" si="1"/>
         <v>1.1048018534800001E-2</v>
       </c>
@@ -3544,7 +3552,7 @@
       <c r="N44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P44" s="1" t="s">
@@ -3559,7 +3567,7 @@
       <c r="S44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T44" s="1" t="s">
+      <c r="T44" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U44" s="1" t="s">
@@ -3588,10 +3596,10 @@
       <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="H45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3609,7 +3617,7 @@
       <c r="N45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P45" s="1" t="s">
@@ -3624,7 +3632,7 @@
       <c r="S45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="T45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U45" s="1" t="s">
@@ -3653,10 +3661,10 @@
       <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="3" t="s">
+      <c r="H46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3674,7 +3682,7 @@
       <c r="N46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P46" s="1" t="s">
@@ -3689,7 +3697,7 @@
       <c r="S46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T46" s="1" t="s">
+      <c r="T46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U46" s="1" t="s">
@@ -3718,10 +3726,10 @@
       <c r="G47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="3" t="s">
+      <c r="H47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3739,7 +3747,7 @@
       <c r="N47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P47" s="1" t="s">
@@ -3754,7 +3762,7 @@
       <c r="S47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="T47" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U47" s="1" t="s">
@@ -3783,10 +3791,10 @@
       <c r="G48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="2">
         <v>-17.7639</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="6">
         <f t="shared" si="1"/>
         <v>1.0981399598E-2</v>
       </c>
@@ -3805,7 +3813,7 @@
       <c r="N48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P48" s="1" t="s">
@@ -3820,7 +3828,7 @@
       <c r="S48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="T48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U48" s="1" t="s">
@@ -3849,10 +3857,10 @@
       <c r="G49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="2">
         <v>-30.688419999999997</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="6">
         <f t="shared" si="1"/>
         <v>1.08369034644E-2</v>
       </c>
@@ -3871,7 +3879,7 @@
       <c r="N49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P49" s="1" t="s">
@@ -3886,7 +3894,7 @@
       <c r="S49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="T49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U49" s="1" t="s">
@@ -3915,10 +3923,10 @@
       <c r="G50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="2">
         <v>-29.979620000000004</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="6">
         <f t="shared" si="1"/>
         <v>1.0844827848400001E-2</v>
       </c>
@@ -3937,7 +3945,7 @@
       <c r="N50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P50" s="1" t="s">
@@ -3952,7 +3960,7 @@
       <c r="S50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="T50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U50" s="1" t="s">
@@ -3981,10 +3989,10 @@
       <c r="G51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="2">
         <v>-29.804650000000002</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="6">
         <f t="shared" si="1"/>
         <v>1.0846784013E-2</v>
       </c>
@@ -4003,7 +4011,7 @@
       <c r="N51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="5" t="s">
         <v>22</v>
       </c>
       <c r="P51" s="1" t="s">
@@ -4018,7 +4026,7 @@
       <c r="S51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="T51" s="5" t="s">
         <v>22</v>
       </c>
       <c r="U51" s="1" t="s">
@@ -4050,7 +4058,7 @@
       <c r="H52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4068,7 +4076,7 @@
       <c r="N52" s="1">
         <v>0</v>
       </c>
-      <c r="O52" s="1">
+      <c r="O52" s="5">
         <f>$O$4*(N52/1000+1)</f>
         <v>2.0051711041251551E-3</v>
       </c>
@@ -4084,7 +4092,7 @@
       <c r="S52" s="1">
         <v>0.65</v>
       </c>
-      <c r="T52" s="1">
+      <c r="T52" s="5">
         <f>$T$4*(S52/1000+1)</f>
         <v>1.558655054938256E-4</v>
       </c>
@@ -4117,7 +4125,7 @@
       <c r="H53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -4135,7 +4143,7 @@
       <c r="N53" s="1">
         <v>-10.55</v>
       </c>
-      <c r="O53" s="1">
+      <c r="O53" s="5">
         <f>$O$4*(N53/1000+1)</f>
         <v>1.9840165489766349E-3</v>
       </c>
@@ -4151,7 +4159,7 @@
       <c r="S53" s="1">
         <v>-75.63</v>
       </c>
-      <c r="T53" s="1">
+      <c r="T53" s="5">
         <f>$T$4*(S53/1000+1)</f>
         <v>1.4398380783823273E-4</v>
       </c>
@@ -4184,7 +4192,7 @@
       <c r="H54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4202,7 +4210,7 @@
       <c r="N54" s="1">
         <v>-20.010000000000002</v>
       </c>
-      <c r="O54" s="1">
+      <c r="O54" s="5">
         <f>$O$4*(N54/1000+1)</f>
         <v>1.9650476303316108E-3</v>
       </c>
@@ -4218,7 +4226,7 @@
       <c r="S54" s="1">
         <v>-156.87</v>
       </c>
-      <c r="T54" s="1">
+      <c r="T54" s="5">
         <f>$T$4*(S54/1000+1)</f>
         <v>1.3132951945936058E-4</v>
       </c>

--- a/data-raw/isotope.standards.xlsx
+++ b/data-raw/isotope.standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwh/Dropbox/Documents/RPackages/HEEL/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A67D4F0-12F2-8A49-BCB6-0774B529C756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55842951-24FE-3F46-9892-05C7CC27439D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1960" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -259,17 +259,24 @@
   </si>
   <si>
     <t>H2O</t>
+  </si>
+  <si>
+    <t>IAEA-S-1</t>
+  </si>
+  <si>
+    <t>SLAP2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -311,18 +318,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,16 +645,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FABCE9-6167-DC44-957C-ACDEE5097F56}">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="16.1640625" style="1" customWidth="1"/>
+    <col min="2" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="5" customWidth="1"/>
+    <col min="10" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="9" customWidth="1"/>
+    <col min="13" max="14" width="16.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1640625" style="7" customWidth="1"/>
+    <col min="18" max="19" width="16.1640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="16.1640625" style="9" customWidth="1"/>
+    <col min="21" max="21" width="16.1640625" style="1" customWidth="1"/>
     <col min="22" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -666,7 +686,7 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -675,7 +695,7 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -684,7 +704,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -693,13 +713,13 @@
       <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>74</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -708,7 +728,7 @@
       <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="9" t="s">
         <v>76</v>
       </c>
       <c r="U1" s="1" t="s">
@@ -731,7 +751,7 @@
       <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -740,8 +760,9 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
-        <v>1.1180000000000001E-2</v>
+      <c r="I2" s="5">
+        <f>I13*(1-(H13/1000))</f>
+        <v>1.11801561E-2</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
@@ -749,7 +770,7 @@
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -758,13 +779,13 @@
       <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -773,7 +794,7 @@
       <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -800,13 +821,13 @@
         <f>1/272</f>
         <v>3.6764705882352941E-3</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>75.52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -815,7 +836,7 @@
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -824,23 +845,23 @@
       <c r="N3">
         <v>23.8</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="9">
         <f>$O$4*(N3/1000+1)</f>
-        <v>2.0528941764033338E-3</v>
+        <v>2.0529237599999999E-3</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="Q3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="6">
         <v>23.14</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U3" s="1">
@@ -863,16 +884,16 @@
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -881,7 +902,7 @@
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -890,26 +911,24 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="8">
-        <f>0.0020004/0.9976206</f>
-        <v>2.0051711041251551E-3</v>
+      <c r="O4" s="10">
+        <v>2.0052E-3</v>
       </c>
       <c r="P4" s="4">
         <v>0</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="8">
         <f>0.000379/0.9976206</f>
         <v>3.7990394344302836E-4</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="10">
-        <f>0.00015574/0.99984426</f>
-        <v>1.5576425872565393E-4</v>
+      <c r="T4" s="11">
+        <v>1.5576000000000001E-4</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>22</v>
@@ -917,7 +936,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="b">
         <v>1</v>
@@ -934,47 +953,47 @@
       <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9">
-        <v>4.3992910000000003E-2</v>
+      <c r="K5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>22</v>
+      <c r="N5" s="1">
+        <v>-55.5</v>
+      </c>
+      <c r="O5" s="10">
+        <v>1.8939E-3</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-427.5</v>
+      </c>
+      <c r="T5" s="11">
+        <v>8.9170000000000002E-5</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>22</v>
@@ -982,7 +1001,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1" t="b">
         <v>1</v>
@@ -993,30 +1012,29 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1">
-        <v>180</v>
-      </c>
-      <c r="F6" s="5">
-        <f>$F$3*(E6/1000+1)</f>
-        <v>4.3382352941176471E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>16.48</v>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>22</v>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>4.4162600000000003E-2</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>22</v>
@@ -1024,22 +1042,22 @@
       <c r="N6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="7">
-        <v>56.472000000000001</v>
+      <c r="Q6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U6" s="1" t="s">
@@ -1048,7 +1066,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="b">
         <v>1</v>
@@ -1060,29 +1078,28 @@
         <v>22</v>
       </c>
       <c r="E7" s="1">
-        <v>-4.5199999999999996</v>
+        <v>180</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" ref="F7:F8" si="0">$F$3*(E7/1000+1)</f>
-        <v>3.6598529411764709E-3</v>
-      </c>
-      <c r="G7" s="7">
-        <v>9.52</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-26.39</v>
-      </c>
-      <c r="I7" s="6">
-        <f>$I$2*(H7/1000+1)</f>
-        <v>1.08849598E-2</v>
-      </c>
-      <c r="J7" s="3">
-        <v>40.817</v>
+        <f>$F$3*(E7/1000+1)</f>
+        <v>4.3382352941176471E-3</v>
+      </c>
+      <c r="G7" s="6">
+        <v>16.48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1091,22 +1108,22 @@
       <c r="N7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>22</v>
+      <c r="Q7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R7" s="6">
+        <v>56.472000000000001</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -1115,107 +1132,108 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F9" si="0">$F$3*(E8/1000+1)</f>
+        <v>3.6598529411764709E-3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>9.52</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-26.39</v>
+      </c>
+      <c r="I8" s="5">
+        <f>$I$2*(H8/1000+1)</f>
+        <v>1.0885111780521E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>40.817</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1">
         <v>47.57</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>3.8513602941176468E-3</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="6">
         <v>9.52</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H9" s="1">
         <v>37.630000000000003</v>
       </c>
-      <c r="I8" s="6">
-        <f t="shared" ref="I8:I51" si="1">$I$2*(H8/1000+1)</f>
-        <v>1.1600703400000001E-2</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="I9" s="5">
+        <f t="shared" ref="I9:I53" si="1">$I$2*(H9/1000+1)</f>
+        <v>1.1600865374043E-2</v>
+      </c>
+      <c r="J9" s="3">
         <v>40.817</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-32.15</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0820563E-2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>42.106000000000002</v>
-      </c>
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1224,31 +1242,31 @@
       <c r="N9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R9" s="7">
-        <v>51.414999999999999</v>
+      <c r="Q9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="3">
-        <v>6.4779999999999998</v>
+      <c r="T9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="b">
         <v>1</v>
@@ -1265,15 +1283,15 @@
       <c r="F10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>-10.45</v>
-      </c>
-      <c r="I10" s="6">
+        <v>-32.15</v>
+      </c>
+      <c r="I10" s="5">
         <f t="shared" si="1"/>
-        <v>1.1063169000000001E-2</v>
+        <v>1.0820714081385E-2</v>
       </c>
       <c r="J10" s="3">
         <v>42.106000000000002</v>
@@ -1281,7 +1299,7 @@
       <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1290,22 +1308,22 @@
       <c r="N10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R10" s="7">
+      <c r="Q10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" s="6">
         <v>51.414999999999999</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U10" s="3">
@@ -1314,130 +1332,131 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <f t="shared" ref="F11" si="2">$F$3*(E11/1000+1)</f>
-        <v>3.6838235294117646E-3</v>
-      </c>
-      <c r="G11" s="7">
-        <v>2.9649999999999999</v>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H11" s="1">
-        <v>-26.1</v>
-      </c>
-      <c r="I11" s="6">
+        <v>-10.45</v>
+      </c>
+      <c r="I11" s="5">
         <f t="shared" si="1"/>
-        <v>1.0888202000000001E-2</v>
+        <v>1.1063323468755E-2</v>
       </c>
       <c r="J11" s="3">
-        <v>45.5</v>
+        <v>42.106000000000002</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.2</v>
+      <c r="L11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>22</v>
+      <c r="Q11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" s="6">
+        <v>51.414999999999999</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>22</v>
+      <c r="T11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11" s="3">
+        <v>6.4779999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>22</v>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" ref="F12" si="2">$F$3*(E12/1000+1)</f>
+        <v>3.6838235294117646E-3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.9649999999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1.12021E-2</v>
+        <v>-26.1</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>1.088835402579E-2</v>
       </c>
       <c r="J12" s="3">
-        <v>12</v>
+        <v>45.5</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>22</v>
+      <c r="L12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.2</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R12" s="7">
-        <v>47.957000000000001</v>
+      <c r="Q12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U12" s="3" t="s">
@@ -1446,7 +1465,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="b">
         <v>1</v>
@@ -1463,23 +1482,22 @@
       <c r="F13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="1">
-        <v>-46.6</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0659012000000001E-2</v>
+        <v>1.95</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.1202E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>16.254999999999999</v>
+        <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1488,22 +1506,22 @@
       <c r="N13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="7">
-        <v>64.957999999999998</v>
+      <c r="Q13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" s="6">
+        <v>47.957000000000001</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U13" s="3" t="s">
@@ -1512,41 +1530,39 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" ref="F14:F34" si="3">$F$3*(E14/1000+1)</f>
-        <v>3.6595588235294116E-3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>9.52</v>
+        <v>22</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>-28.3</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0863606000000001E-2</v>
+        <v>-46.6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1.0685999999999999E-2</v>
       </c>
       <c r="J14" s="3">
-        <v>40.817</v>
+        <v>16.254999999999999</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -1555,22 +1571,22 @@
       <c r="N14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>22</v>
+      <c r="Q14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="6">
+        <v>64.957999999999998</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U14" s="3" t="s">
@@ -1579,1477 +1595,1477 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="L15" s="9">
+        <v>4.4149399999999998E-2</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" ref="F16:F36" si="3">$F$3*(E16/1000+1)</f>
+        <v>3.6595588235294116E-3</v>
+      </c>
+      <c r="G16" s="6">
+        <v>9.52</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-28.3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0863757682369999E-2</v>
+      </c>
+      <c r="J16" s="3">
+        <v>40.817</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="B17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E17" s="1">
         <v>-5.2</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F17" s="5">
         <f t="shared" si="3"/>
         <v>3.6573529411764705E-3</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G17" s="6">
         <v>9.52</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H17" s="1">
         <v>-13.7</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="1"/>
-        <v>1.1026834000000001E-2</v>
-      </c>
-      <c r="J15" s="3">
+        <v>1.1026987961429998E-2</v>
+      </c>
+      <c r="J17" s="3">
         <v>40.817</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="B18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E18" s="1">
         <v>11.3</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F18" s="5">
         <f t="shared" si="3"/>
         <v>3.7180147058823534E-3</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G18" s="6">
         <v>11.8</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H18" s="1">
         <v>-21.3</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="1"/>
-        <v>1.0941866000000001E-2</v>
-      </c>
-      <c r="J16" s="3">
+        <v>1.0942018775069999E-2</v>
+      </c>
+      <c r="J18" s="3">
         <v>45.7</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E19" s="1">
         <v>-0.3</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F19" s="5">
         <f t="shared" si="3"/>
         <v>3.6753676470588238E-3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G19" s="6">
         <v>2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H19" s="1">
         <v>-26.5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I19" s="5">
         <f t="shared" si="1"/>
-        <v>1.0883730000000001E-2</v>
-      </c>
-      <c r="J17" s="3">
+        <v>1.088388196335E-2</v>
+      </c>
+      <c r="J19" s="3">
         <v>39</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="B20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E20" s="1">
         <v>1.3</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>3.6812500000000001E-3</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G20" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H20" s="1">
         <v>-9.6</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="1"/>
-        <v>1.1072672E-2</v>
-      </c>
-      <c r="J18" s="3">
+        <v>1.1072826601439999E-2</v>
+      </c>
+      <c r="J20" s="3">
         <v>51.9</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="B21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E21" s="2">
         <v>-1.2104619999999999</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F21" s="5">
         <f t="shared" si="3"/>
         <v>3.6720203602941177E-3</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G21" s="6">
         <v>15.721</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H21" s="2">
         <v>-19.3934</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="1"/>
-        <v>1.0963181788000001E-2</v>
-      </c>
-      <c r="J19" s="3">
+        <v>1.096333486069026E-2</v>
+      </c>
+      <c r="J21" s="3">
         <v>40.442999999999998</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="K21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R21" s="6">
         <v>35.915999999999997</v>
       </c>
-      <c r="S19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" s="3">
+      <c r="S21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U21" s="3">
         <v>7.9189999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="1" t="s">
+    <row r="22" spans="1:21">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="B22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E22" s="2">
         <v>-9.9298600000000015</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F22" s="5">
         <f t="shared" si="3"/>
         <v>3.63996375E-3</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G22" s="6">
         <v>10.523</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H22" s="2">
         <v>-21.766460000000002</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
-        <v>1.0936650977200001E-2</v>
-      </c>
-      <c r="J20" s="3">
+        <v>1.0936803679455593E-2</v>
+      </c>
+      <c r="J22" s="3">
         <v>36.094999999999999</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="K22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R22" s="6">
         <v>48.081000000000003</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="S22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U22" s="3">
         <v>5.3010000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:21">
+      <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="7">
+      <c r="E23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6">
         <v>9.52</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="H23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
         <v>40.817</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R21" s="7">
+      <c r="K23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R23" s="6">
         <v>43.497999999999998</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="S23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="3">
         <v>6.1660000000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:21">
+      <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E24" s="2">
         <v>1.7675399999999999</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>3.6829688970588231E-3</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G24" s="6">
         <v>18.658999999999999</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H24" s="2">
         <v>-45.725900000000003</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="1"/>
-        <v>1.0668784438000001E-2</v>
-      </c>
-      <c r="J22" s="3">
+        <v>1.0668933400187011E-2</v>
+      </c>
+      <c r="J24" s="3">
         <v>32</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="7">
+      <c r="K24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R24" s="6">
         <v>42.627000000000002</v>
       </c>
-      <c r="S22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="S24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U24" s="3">
         <v>6.7140000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:21">
+      <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E25" s="2">
         <v>-0.94016599999999995</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F25" s="5">
         <f t="shared" si="3"/>
         <v>3.6730140955882353E-3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G25" s="6">
         <v>27.082999999999998</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H25" s="2">
         <v>-9.4759599999999988</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="1"/>
-        <v>1.1074058767200001E-2</v>
-      </c>
-      <c r="J23" s="3">
+        <v>1.1074213388002645E-2</v>
+      </c>
+      <c r="J25" s="3">
         <v>46.447000000000003</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="7">
+      <c r="K25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="6">
         <v>20.623999999999999</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="S25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="3">
         <v>5.8470000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:21">
+      <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E26" s="2">
         <v>-2.3436166666666662</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F26" s="5">
         <f t="shared" si="3"/>
         <v>3.6678543504901958E-3</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G26" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H26" s="2">
         <v>-13.326050000000002</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="1"/>
-        <v>1.1031014761000001E-2</v>
-      </c>
-      <c r="J24" s="3">
+        <v>1.1031168780803595E-2</v>
+      </c>
+      <c r="J26" s="3">
         <v>54.938000000000002</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R24" s="7">
+      <c r="K26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R26" s="6">
         <v>24.393999999999998</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="3">
+      <c r="S26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:21">
+      <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+      <c r="B27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E27" s="2">
         <v>0.35011250000000005</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F27" s="5">
         <f t="shared" si="3"/>
         <v>3.6777577665441179E-3</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G27" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H27" s="2">
         <v>-13.493425</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I27" s="5">
         <f t="shared" si="1"/>
-        <v>1.1029143508500001E-2</v>
-      </c>
-      <c r="J25" s="3">
+        <v>1.1029297502176358E-2</v>
+      </c>
+      <c r="J27" s="3">
         <v>54.938000000000002</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" s="7">
+      <c r="K27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R27" s="6">
         <v>24.393999999999998</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="3">
+      <c r="S27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="1" t="s">
+    <row r="28" spans="1:21">
+      <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="B28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E28" s="2">
         <v>0.78881200000000007</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F28" s="5">
         <f t="shared" si="3"/>
         <v>3.6793706323529408E-3</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G28" s="6">
         <v>19.163</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H28" s="2">
         <v>-28.00938</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>1.0866855131600002E-2</v>
-      </c>
-      <c r="J26" s="3">
+        <v>1.0867006859335782E-2</v>
+      </c>
+      <c r="J28" s="3">
         <v>49.295999999999999</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="7">
+      <c r="K28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="6">
         <v>21.888999999999999</v>
       </c>
-      <c r="S26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="S28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="3">
         <v>9.6530000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:21">
+      <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>-1.5775499999999998</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F29" s="5">
         <f t="shared" si="3"/>
         <v>3.6706707720588231E-3</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G29" s="6">
         <v>9.3872</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>-33.4637125</v>
       </c>
-      <c r="I27" s="6">
-        <f>$I$2*(H27/1000+1)</f>
-        <v>1.0805875694250001E-2</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I29" s="5">
+        <f>$I$2*(H29/1000+1)</f>
+        <v>1.0806026570564477E-2</v>
+      </c>
+      <c r="J29" s="3">
         <v>40.247300000000003</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" s="1">
+      <c r="K29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M29" s="1">
         <v>21.489699999999999</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R27" s="7">
+      <c r="N29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="6">
         <v>21.4453</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="S29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="3">
         <v>7.4306000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
-      <c r="A28" s="1" t="s">
+    <row r="30" spans="1:21">
+      <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E30" s="2">
         <v>14.163140000000002</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F30" s="5">
         <f t="shared" si="3"/>
         <v>3.7285409558823527E-3</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G30" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H30" s="2">
         <v>-27.616899999999998</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I30" s="5">
         <f t="shared" si="1"/>
-        <v>1.0871243058000002E-2</v>
-      </c>
-      <c r="J28" s="3">
+        <v>1.0871394847001911E-2</v>
+      </c>
+      <c r="J30" s="3">
         <v>54.938000000000002</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="7">
+      <c r="K30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="6">
         <v>24.393999999999998</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="3">
+      <c r="S30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="3">
         <v>9.9890000000000008</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
-      <c r="A29" s="1" t="s">
+    <row r="31" spans="1:21">
+      <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
+      <c r="B31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E31" s="2">
         <v>2.1924000000000001</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F31" s="5">
         <f t="shared" si="3"/>
         <v>3.6845308823529412E-3</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G31" s="6">
         <v>8.4792000000000005</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H31" s="2">
         <v>-11.7986</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I31" s="5">
         <f t="shared" si="1"/>
-        <v>1.1048091652E-2</v>
-      </c>
-      <c r="J29" s="3">
+        <v>1.1048245910238539E-2</v>
+      </c>
+      <c r="J31" s="3">
         <v>65.437899999999999</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R29" s="7">
+      <c r="K31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R31" s="6">
         <v>19.370999999999999</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="S31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U31" s="3">
         <v>6.7119</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:21">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E32" s="2">
         <v>1.5505800000000001</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F32" s="5">
         <f t="shared" si="3"/>
         <v>3.68217125E-3</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G32" s="6">
         <v>12.165900000000001</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H32" s="2">
         <v>-11.291300000000001</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I32" s="5">
         <f t="shared" si="1"/>
-        <v>1.1053763266000001E-2</v>
-      </c>
-      <c r="J30" s="3">
+        <v>1.105391760342807E-2</v>
+      </c>
+      <c r="J32" s="3">
         <v>52.161299999999997</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R30" s="7">
+      <c r="K32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R32" s="6">
         <v>27.793500000000002</v>
       </c>
-      <c r="S30" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U30" s="3">
+      <c r="S32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U32" s="3">
         <v>7.8792999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:21">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B33" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <v>-1.7516750000000001</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F33" s="5">
         <f t="shared" si="3"/>
         <v>3.6700306066176471E-3</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G33" s="6">
         <v>13.327999999999999</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <v>-7.8926999999999996</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I33" s="5">
         <f t="shared" si="1"/>
-        <v>1.1091759614000002E-2</v>
-      </c>
-      <c r="J31" s="3">
+        <v>1.109191448194953E-2</v>
+      </c>
+      <c r="J33" s="3">
         <v>34.286099999999998</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R31" s="7">
+      <c r="K33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="6">
         <v>45.6723</v>
       </c>
-      <c r="S31" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T31" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U31" s="3">
+      <c r="S33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U33" s="3">
         <v>6.7137000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
-      <c r="A32" s="1" t="s">
+    <row r="34" spans="1:21">
+      <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="B34" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="2">
         <v>4.8876249999999996E-2</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F34" s="5">
         <f t="shared" si="3"/>
         <v>3.6766502803308823E-3</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G34" s="6">
         <v>11.758599999999999</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H34" s="2">
         <v>-11.36345</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I34" s="5">
         <f t="shared" si="1"/>
-        <v>1.1052956629000001E-2</v>
-      </c>
-      <c r="J32" s="3">
+        <v>1.1053110955165453E-2</v>
+      </c>
+      <c r="J34" s="3">
         <v>40.331699999999998</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R32" s="7">
+      <c r="K34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="6">
         <v>40.2943</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T32" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="S34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U34" s="3">
         <v>7.6154000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:21">
+      <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="B35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E35" s="2">
         <v>3.2947499999999996</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F35" s="5">
         <f t="shared" si="3"/>
         <v>3.6885836397058825E-3</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G35" s="6">
         <v>7.7305000000000001</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H35" s="2">
         <v>-22.567500000000003</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I35" s="5">
         <f t="shared" si="1"/>
-        <v>1.0927695350000001E-2</v>
-      </c>
-      <c r="J33" s="3">
+        <v>1.092784792721325E-2</v>
+      </c>
+      <c r="J35" s="3">
         <v>59.659599999999998</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R33" s="7">
+      <c r="K35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R35" s="6">
         <v>26.4907</v>
       </c>
-      <c r="S33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="S35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T35" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" s="3">
         <v>6.1192000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
-      <c r="A34" s="1" t="s">
+    <row r="36" spans="1:21">
+      <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E36" s="2">
         <v>0.36097499999999999</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F36" s="5">
         <f t="shared" si="3"/>
         <v>3.6777977022058824E-3</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G36" s="6">
         <v>11.9566</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H36" s="2">
         <v>-12.276412499999999</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I36" s="5">
         <f t="shared" si="1"/>
-        <v>1.1042749708250001E-2</v>
-      </c>
-      <c r="J34" s="3">
+        <v>1.1042903891902009E-2</v>
+      </c>
+      <c r="J36" s="3">
         <v>51.2637</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R34" s="7">
+      <c r="K36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R36" s="6">
         <v>27.315200000000001</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U34" s="3">
+      <c r="S36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="U36" s="3">
         <v>9.4644999999999992</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="2">
-        <v>-30.561609999999995</v>
-      </c>
-      <c r="I35" s="6">
-        <f t="shared" si="1"/>
-        <v>1.08383212002E-2</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="2">
-        <v>-29.274849999999997</v>
-      </c>
-      <c r="I36" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0852707177000001E-2</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:21">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="b">
         <v>0</v>
@@ -3063,18 +3079,18 @@
       <c r="E37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="2">
-        <v>-28.428689999999996</v>
-      </c>
-      <c r="I37" s="6">
+        <v>-30.561609999999995</v>
+      </c>
+      <c r="I37" s="5">
         <f t="shared" si="1"/>
-        <v>1.0862167245800001E-2</v>
+        <v>1.0838472529532678E-2</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>22</v>
@@ -3082,7 +3098,7 @@
       <c r="K37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3091,13 +3107,13 @@
       <c r="N37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O37" s="5" t="s">
+      <c r="O37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q37" s="1" t="s">
+      <c r="Q37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -3106,7 +3122,7 @@
       <c r="S37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U37" s="1" t="s">
@@ -3115,7 +3131,7 @@
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="b">
         <v>0</v>
@@ -3129,18 +3145,18 @@
       <c r="E38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="2">
-        <v>-26.576659999999997</v>
-      </c>
-      <c r="I38" s="6">
+        <v>-29.274849999999997</v>
+      </c>
+      <c r="I38" s="5">
         <f t="shared" si="1"/>
-        <v>1.08828729412E-2</v>
+        <v>1.0852858707195915E-2</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>22</v>
@@ -3148,7 +3164,7 @@
       <c r="K38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -3157,13 +3173,13 @@
       <c r="N38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="5" t="s">
+      <c r="O38" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q38" s="1" t="s">
+      <c r="Q38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -3172,7 +3188,7 @@
       <c r="S38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U38" s="1" t="s">
@@ -3181,7 +3197,7 @@
     </row>
     <row r="39" spans="1:21">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="b">
         <v>0</v>
@@ -3195,17 +3211,18 @@
       <c r="E39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>22</v>
+      <c r="H39" s="2">
+        <v>-28.428689999999996</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0862318908081489E-2</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>22</v>
@@ -3213,7 +3230,7 @@
       <c r="K39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -3222,13 +3239,13 @@
       <c r="N39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -3237,7 +3254,7 @@
       <c r="S39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U39" s="1" t="s">
@@ -3246,7 +3263,7 @@
     </row>
     <row r="40" spans="1:21">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="b">
         <v>0</v>
@@ -3260,18 +3277,18 @@
       <c r="E40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="2">
-        <v>-29.848129999999998</v>
-      </c>
-      <c r="I40" s="6">
+        <v>-26.576659999999997</v>
+      </c>
+      <c r="I40" s="5">
         <f t="shared" si="1"/>
-        <v>1.0846297906600001E-2</v>
+        <v>1.0883024892583373E-2</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>22</v>
@@ -3279,7 +3296,7 @@
       <c r="K40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -3288,13 +3305,13 @@
       <c r="N40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="O40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q40" s="1" t="s">
+      <c r="Q40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -3303,7 +3320,7 @@
       <c r="S40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U40" s="1" t="s">
@@ -3312,7 +3329,7 @@
     </row>
     <row r="41" spans="1:21">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="b">
         <v>0</v>
@@ -3326,18 +3343,17 @@
       <c r="E41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="2">
-        <v>-28.465210000000003</v>
-      </c>
-      <c r="I41" s="6">
-        <f t="shared" si="1"/>
-        <v>1.08617589522E-2</v>
+      <c r="H41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>22</v>
@@ -3345,7 +3361,7 @@
       <c r="K41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -3354,13 +3370,13 @@
       <c r="N41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="O41" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q41" s="1" t="s">
+      <c r="Q41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -3369,7 +3385,7 @@
       <c r="S41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U41" s="1" t="s">
@@ -3378,7 +3394,7 @@
     </row>
     <row r="42" spans="1:21">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="b">
         <v>0</v>
@@ -3392,18 +3408,18 @@
       <c r="E42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="2">
-        <v>-31.612680000000001</v>
-      </c>
-      <c r="I42" s="6">
+        <v>-29.848129999999998</v>
+      </c>
+      <c r="I42" s="5">
         <f t="shared" si="1"/>
-        <v>1.0826570237599999E-2</v>
+        <v>1.0846449347306907E-2</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>22</v>
@@ -3411,7 +3427,7 @@
       <c r="K42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -3420,13 +3436,13 @@
       <c r="N42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="O42" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q42" s="1" t="s">
+      <c r="Q42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -3435,7 +3451,7 @@
       <c r="S42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U42" s="1" t="s">
@@ -3444,7 +3460,7 @@
     </row>
     <row r="43" spans="1:21">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="b">
         <v>0</v>
@@ -3458,18 +3474,18 @@
       <c r="E43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="2">
-        <v>-12.954180000000003</v>
-      </c>
-      <c r="I43" s="6">
+        <v>-28.465210000000003</v>
+      </c>
+      <c r="I43" s="5">
         <f t="shared" si="1"/>
-        <v>1.1035172267600001E-2</v>
+        <v>1.0861910608780719E-2</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>22</v>
@@ -3477,7 +3493,7 @@
       <c r="K43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3486,13 +3502,13 @@
       <c r="N43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -3501,7 +3517,7 @@
       <c r="S43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U43" s="1" t="s">
@@ -3510,7 +3526,7 @@
     </row>
     <row r="44" spans="1:21">
       <c r="A44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" s="1" t="b">
         <v>0</v>
@@ -3524,18 +3540,18 @@
       <c r="E44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="2">
-        <v>-11.805139999999998</v>
-      </c>
-      <c r="I44" s="6">
+        <v>-31.612680000000001</v>
+      </c>
+      <c r="I44" s="5">
         <f t="shared" si="1"/>
-        <v>1.1048018534800001E-2</v>
+        <v>1.082672140286065E-2</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>22</v>
@@ -3543,7 +3559,7 @@
       <c r="K44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -3552,13 +3568,13 @@
       <c r="N44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="O44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q44" s="1" t="s">
+      <c r="Q44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R44" s="1" t="s">
@@ -3567,7 +3583,7 @@
       <c r="S44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U44" s="1" t="s">
@@ -3576,7 +3592,7 @@
     </row>
     <row r="45" spans="1:21">
       <c r="A45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="b">
         <v>0</v>
@@ -3590,17 +3606,18 @@
       <c r="E45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>22</v>
+      <c r="H45" s="2">
+        <v>-12.954180000000003</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1035326345452501E-2</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>22</v>
@@ -3608,7 +3625,7 @@
       <c r="K45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3617,13 +3634,13 @@
       <c r="N45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="O45" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q45" s="1" t="s">
+      <c r="Q45" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -3632,7 +3649,7 @@
       <c r="S45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U45" s="1" t="s">
@@ -3641,7 +3658,7 @@
     </row>
     <row r="46" spans="1:21">
       <c r="A46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" s="1" t="b">
         <v>0</v>
@@ -3655,17 +3672,18 @@
       <c r="E46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>22</v>
+      <c r="H46" s="2">
+        <v>-11.805139999999998</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1048172792017646E-2</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>22</v>
@@ -3673,7 +3691,7 @@
       <c r="K46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3682,13 +3700,13 @@
       <c r="N46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="O46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R46" s="1" t="s">
@@ -3697,7 +3715,7 @@
       <c r="S46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U46" s="1" t="s">
@@ -3706,7 +3724,7 @@
     </row>
     <row r="47" spans="1:21">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B47" s="1" t="b">
         <v>0</v>
@@ -3720,7 +3738,7 @@
       <c r="E47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -3729,7 +3747,7 @@
       <c r="H47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3738,7 +3756,7 @@
       <c r="K47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -3747,13 +3765,13 @@
       <c r="N47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q47" s="1" t="s">
+      <c r="Q47" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -3762,7 +3780,7 @@
       <c r="S47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U47" s="1" t="s">
@@ -3771,7 +3789,7 @@
     </row>
     <row r="48" spans="1:21">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="1" t="b">
         <v>0</v>
@@ -3785,18 +3803,17 @@
       <c r="E48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="2">
-        <v>-17.7639</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0981399598E-2</v>
+      <c r="H48" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>22</v>
@@ -3804,7 +3821,7 @@
       <c r="K48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -3813,13 +3830,13 @@
       <c r="N48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q48" s="1" t="s">
+      <c r="Q48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -3828,7 +3845,7 @@
       <c r="S48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T48" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U48" s="1" t="s">
@@ -3837,7 +3854,7 @@
     </row>
     <row r="49" spans="1:21">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1" t="b">
         <v>0</v>
@@ -3851,18 +3868,17 @@
       <c r="E49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="2">
-        <v>-30.688419999999997</v>
-      </c>
-      <c r="I49" s="6">
-        <f t="shared" si="1"/>
-        <v>1.08369034644E-2</v>
+      <c r="H49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>22</v>
@@ -3870,7 +3886,7 @@
       <c r="K49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -3879,13 +3895,13 @@
       <c r="N49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O49" s="5" t="s">
+      <c r="O49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q49" s="1" t="s">
+      <c r="Q49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R49" s="1" t="s">
@@ -3894,7 +3910,7 @@
       <c r="S49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U49" s="1" t="s">
@@ -3903,7 +3919,7 @@
     </row>
     <row r="50" spans="1:21">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B50" s="1" t="b">
         <v>0</v>
@@ -3917,18 +3933,18 @@
       <c r="E50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="2">
-        <v>-29.979620000000004</v>
-      </c>
-      <c r="I50" s="6">
+        <v>-17.7639</v>
+      </c>
+      <c r="I50" s="5">
         <f t="shared" si="1"/>
-        <v>1.0844827848400001E-2</v>
+        <v>1.098155292505521E-2</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>22</v>
@@ -3936,7 +3952,7 @@
       <c r="K50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -3945,13 +3961,13 @@
       <c r="N50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q50" s="1" t="s">
+      <c r="Q50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -3960,7 +3976,7 @@
       <c r="S50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T50" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U50" s="1" t="s">
@@ -3969,7 +3985,7 @@
     </row>
     <row r="51" spans="1:21">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1" t="b">
         <v>0</v>
@@ -3983,18 +3999,18 @@
       <c r="E51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H51" s="2">
-        <v>-29.804650000000002</v>
-      </c>
-      <c r="I51" s="6">
+        <v>-30.688419999999997</v>
+      </c>
+      <c r="I51" s="5">
         <f t="shared" si="1"/>
-        <v>1.0846784013E-2</v>
+        <v>1.0837054773937637E-2</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>22</v>
@@ -4002,7 +4018,7 @@
       <c r="K51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -4011,13 +4027,13 @@
       <c r="N51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q51" s="1" t="s">
+      <c r="Q51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R51" s="1" t="s">
@@ -4026,7 +4042,7 @@
       <c r="S51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T51" s="5" t="s">
+      <c r="T51" s="9" t="s">
         <v>22</v>
       </c>
       <c r="U51" s="1" t="s">
@@ -4035,7 +4051,7 @@
     </row>
     <row r="52" spans="1:21">
       <c r="A52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="b">
         <v>0</v>
@@ -4044,22 +4060,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>22</v>
+      <c r="H52" s="2">
+        <v>-29.979620000000004</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0844979268581318E-2</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>22</v>
@@ -4067,34 +4084,32 @@
       <c r="K52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N52" s="1">
-        <v>0</v>
-      </c>
-      <c r="O52" s="5">
-        <f>$O$4*(N52/1000+1)</f>
-        <v>2.0051711041251551E-3</v>
+      <c r="N52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O52" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q52" s="1" t="s">
+      <c r="Q52" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S52" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="T52" s="5">
-        <f>$T$4*(S52/1000+1)</f>
-        <v>1.558655054938256E-4</v>
+      <c r="S52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T52" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>22</v>
@@ -4102,7 +4117,7 @@
     </row>
     <row r="53" spans="1:21">
       <c r="A53" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="b">
         <v>0</v>
@@ -4111,22 +4126,23 @@
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="F53" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>22</v>
+      <c r="H53" s="2">
+        <v>-29.804650000000002</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0846935460494134E-2</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>22</v>
@@ -4134,34 +4150,32 @@
       <c r="K53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N53" s="1">
-        <v>-10.55</v>
-      </c>
-      <c r="O53" s="5">
-        <f>$O$4*(N53/1000+1)</f>
-        <v>1.9840165489766349E-3</v>
+      <c r="N53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O53" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q53" s="1" t="s">
+      <c r="Q53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="S53" s="1">
-        <v>-75.63</v>
-      </c>
-      <c r="T53" s="5">
-        <f>$T$4*(S53/1000+1)</f>
-        <v>1.4398380783823273E-4</v>
+      <c r="S53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T53" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>22</v>
@@ -4169,7 +4183,7 @@
     </row>
     <row r="54" spans="1:21">
       <c r="A54" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" s="1" t="b">
         <v>0</v>
@@ -4183,7 +4197,7 @@
       <c r="E54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -4192,7 +4206,7 @@
       <c r="H54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="5" t="s">
         <v>22</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -4201,36 +4215,170 @@
       <c r="K54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="9" t="s">
         <v>22</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N54" s="1">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <f>$O$4*(N54/1000+1)</f>
+        <v>2.0052E-3</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q54" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="T54" s="9">
+        <f>$T$4*(S54/1000+1)</f>
+        <v>1.5586124400000003E-4</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" s="1">
+        <v>-10.55</v>
+      </c>
+      <c r="O55" s="9">
+        <f>$O$4*(N55/1000+1)</f>
+        <v>1.9840451400000001E-3</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S55" s="1">
+        <v>-75.63</v>
+      </c>
+      <c r="T55" s="9">
+        <f>$T$4*(S55/1000+1)</f>
+        <v>1.4397987120000002E-4</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" s="1">
         <v>-20.010000000000002</v>
       </c>
-      <c r="O54" s="5">
-        <f>$O$4*(N54/1000+1)</f>
-        <v>1.9650476303316108E-3</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R54" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S54" s="1">
+      <c r="O56" s="9">
+        <f>$O$4*(N56/1000+1)</f>
+        <v>1.9650759479999998E-3</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q56" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S56" s="1">
         <v>-156.87</v>
       </c>
-      <c r="T54" s="5">
-        <f>$T$4*(S54/1000+1)</f>
-        <v>1.3132951945936058E-4</v>
-      </c>
-      <c r="U54" s="1" t="s">
+      <c r="T56" s="9">
+        <f>$T$4*(S56/1000+1)</f>
+        <v>1.313259288E-4</v>
+      </c>
+      <c r="U56" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data-raw/isotope.standards.xlsx
+++ b/data-raw/isotope.standards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwh/Dropbox/Documents/RPackages/HEEL/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55842951-24FE-3F46-9892-05C7CC27439D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A7740-0338-364C-B62C-6731E8EF22FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
+    <workbookView xWindow="8800" yWindow="5740" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,7 +278,7 @@
     <numFmt numFmtId="167" formatCode="0.0000000"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,11 +291,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -330,7 +325,7 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FABCE9-6167-DC44-957C-ACDEE5097F56}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -659,7 +654,7 @@
     <col min="7" max="8" width="16.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="5" customWidth="1"/>
     <col min="10" max="11" width="16.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" style="7" customWidth="1"/>
     <col min="13" max="14" width="16.1640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="16.1640625" style="9" customWidth="1"/>
     <col min="16" max="16" width="16.1640625" style="1" customWidth="1"/>
@@ -704,7 +699,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -770,7 +765,7 @@
       <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
@@ -836,13 +831,13 @@
       <c r="K3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="11">
         <v>23.8</v>
       </c>
       <c r="O3" s="9">
@@ -902,7 +897,7 @@
       <c r="K4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -927,7 +922,7 @@
       <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="9">
         <v>1.5576000000000001E-4</v>
       </c>
       <c r="U4" s="1" t="s">
@@ -968,7 +963,7 @@
       <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -992,7 +987,7 @@
       <c r="S5" s="1">
         <v>-427.5</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="9">
         <v>8.9170000000000002E-5</v>
       </c>
       <c r="U5" s="1" t="s">
@@ -1033,7 +1028,7 @@
       <c r="K6" s="1">
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>4.4162600000000003E-2</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -1099,7 +1094,7 @@
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
@@ -1166,7 +1161,7 @@
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -1233,7 +1228,7 @@
       <c r="K9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -1299,7 +1294,7 @@
       <c r="K10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -1365,7 +1360,7 @@
       <c r="K11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -1432,7 +1427,7 @@
       <c r="K12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M12" s="2">
@@ -1497,7 +1492,7 @@
       <c r="K13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M13" s="1" t="s">
@@ -1562,7 +1557,7 @@
       <c r="K14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
@@ -1627,7 +1622,7 @@
       <c r="K15" s="1">
         <v>-0.3</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="7">
         <v>4.4149399999999998E-2</v>
       </c>
       <c r="M15" s="1" t="s">
@@ -1694,7 +1689,7 @@
       <c r="K16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M16" s="1" t="s">
@@ -1761,7 +1756,7 @@
       <c r="K17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M17" s="1" t="s">
@@ -1828,7 +1823,7 @@
       <c r="K18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M18" s="1" t="s">
@@ -1895,7 +1890,7 @@
       <c r="K19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="1" t="s">
@@ -1962,7 +1957,7 @@
       <c r="K20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M20" s="1" t="s">
@@ -2029,7 +2024,7 @@
       <c r="K21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M21" s="1" t="s">
@@ -2096,7 +2091,7 @@
       <c r="K22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M22" s="1" t="s">
@@ -2161,7 +2156,7 @@
       <c r="K23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="9" t="s">
+      <c r="L23" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -2228,7 +2223,7 @@
       <c r="K24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M24" s="1" t="s">
@@ -2295,7 +2290,7 @@
       <c r="K25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L25" s="9" t="s">
+      <c r="L25" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M25" s="1" t="s">
@@ -2362,7 +2357,7 @@
       <c r="K26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L26" s="9" t="s">
+      <c r="L26" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2429,7 +2424,7 @@
       <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M27" s="1" t="s">
@@ -2496,7 +2491,7 @@
       <c r="K28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -2563,7 +2558,7 @@
       <c r="K29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M29" s="1">
@@ -2630,7 +2625,7 @@
       <c r="K30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M30" s="1" t="s">
@@ -2697,7 +2692,7 @@
       <c r="K31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -2764,7 +2759,7 @@
       <c r="K32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -2831,7 +2826,7 @@
       <c r="K33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M33" s="1" t="s">
@@ -2898,7 +2893,7 @@
       <c r="K34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M34" s="1" t="s">
@@ -2965,7 +2960,7 @@
       <c r="K35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M35" s="1" t="s">
@@ -3032,7 +3027,7 @@
       <c r="K36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M36" s="1" t="s">
@@ -3098,7 +3093,7 @@
       <c r="K37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3164,7 +3159,7 @@
       <c r="K38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -3230,7 +3225,7 @@
       <c r="K39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L39" s="9" t="s">
+      <c r="L39" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -3296,7 +3291,7 @@
       <c r="K40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L40" s="9" t="s">
+      <c r="L40" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M40" s="1" t="s">
@@ -3361,7 +3356,7 @@
       <c r="K41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L41" s="9" t="s">
+      <c r="L41" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -3427,7 +3422,7 @@
       <c r="K42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="9" t="s">
+      <c r="L42" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -3493,7 +3488,7 @@
       <c r="K43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L43" s="9" t="s">
+      <c r="L43" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3559,7 +3554,7 @@
       <c r="K44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L44" s="9" t="s">
+      <c r="L44" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -3625,7 +3620,7 @@
       <c r="K45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L45" s="9" t="s">
+      <c r="L45" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3691,7 +3686,7 @@
       <c r="K46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L46" s="9" t="s">
+      <c r="L46" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3756,7 +3751,7 @@
       <c r="K47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="L47" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M47" s="1" t="s">
@@ -3821,7 +3816,7 @@
       <c r="K48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M48" s="1" t="s">
@@ -3886,7 +3881,7 @@
       <c r="K49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L49" s="9" t="s">
+      <c r="L49" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M49" s="1" t="s">
@@ -3952,7 +3947,7 @@
       <c r="K50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -4018,7 +4013,7 @@
       <c r="K51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M51" s="1" t="s">
@@ -4084,7 +4079,7 @@
       <c r="K52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -4150,7 +4145,7 @@
       <c r="K53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M53" s="1" t="s">
@@ -4215,7 +4210,7 @@
       <c r="K54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M54" s="1" t="s">
@@ -4282,7 +4277,7 @@
       <c r="K55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M55" s="1" t="s">
@@ -4349,7 +4344,7 @@
       <c r="K56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="7" t="s">
         <v>22</v>
       </c>
       <c r="M56" s="1" t="s">

--- a/data-raw/isotope.standards.xlsx
+++ b/data-raw/isotope.standards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwh/Dropbox/Documents/RPackages/HEEL/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89A7740-0338-364C-B62C-6731E8EF22FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7295C7E0-5765-2446-94EE-BB05E52F71FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="5740" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
+    <workbookView xWindow="15500" yWindow="5460" windowWidth="33600" windowHeight="17440" xr2:uid="{BC01E585-F9B4-1C40-8E70-833A08362EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -642,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FABCE9-6167-DC44-957C-ACDEE5097F56}">
   <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -651,7 +651,8 @@
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="16.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="16.1640625" style="5" customWidth="1"/>
     <col min="10" max="11" width="16.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.1640625" style="7" customWidth="1"/>
@@ -687,7 +688,7 @@
       <c r="G1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -752,7 +753,7 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="6">
         <v>0</v>
       </c>
       <c r="I2" s="5">
@@ -819,7 +820,7 @@
       <c r="G3" s="6">
         <v>75.52</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
@@ -885,7 +886,7 @@
       <c r="G4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -951,7 +952,7 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1016,7 +1017,7 @@
       <c r="G6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -1082,7 +1083,7 @@
       <c r="G7" s="6">
         <v>16.48</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -1148,7 +1149,7 @@
       <c r="G8" s="6">
         <v>9.52</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <v>-26.39</v>
       </c>
       <c r="I8" s="5">
@@ -1215,7 +1216,7 @@
       <c r="G9" s="6">
         <v>9.52</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="6">
         <v>37.630000000000003</v>
       </c>
       <c r="I9" s="5">
@@ -1281,7 +1282,7 @@
       <c r="G10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="6">
         <v>-32.15</v>
       </c>
       <c r="I10" s="5">
@@ -1347,7 +1348,7 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="6">
         <v>-10.45</v>
       </c>
       <c r="I11" s="5">
@@ -1404,7 +1405,7 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="5">
@@ -1414,7 +1415,7 @@
       <c r="G12" s="6">
         <v>2.9649999999999999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="6">
         <v>-26.1</v>
       </c>
       <c r="I12" s="5">
@@ -1480,7 +1481,7 @@
       <c r="G13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="6">
         <v>1.95</v>
       </c>
       <c r="I13" s="5">
@@ -1545,7 +1546,7 @@
       <c r="G14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="6">
         <v>-46.6</v>
       </c>
       <c r="I14" s="5">
@@ -1666,7 +1667,7 @@
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="6">
         <v>-4.5999999999999996</v>
       </c>
       <c r="F16" s="5">
@@ -1676,7 +1677,7 @@
       <c r="G16" s="6">
         <v>9.52</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
         <v>-28.3</v>
       </c>
       <c r="I16" s="5">
@@ -1733,7 +1734,7 @@
       <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="6">
         <v>-5.2</v>
       </c>
       <c r="F17" s="5">
@@ -1743,7 +1744,7 @@
       <c r="G17" s="6">
         <v>9.52</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="6">
         <v>-13.7</v>
       </c>
       <c r="I17" s="5">
@@ -1800,7 +1801,7 @@
       <c r="D18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="6">
         <v>11.3</v>
       </c>
       <c r="F18" s="5">
@@ -1810,7 +1811,7 @@
       <c r="G18" s="6">
         <v>11.8</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="6">
         <v>-21.3</v>
       </c>
       <c r="I18" s="5">
@@ -1867,7 +1868,7 @@
       <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="6">
         <v>-0.3</v>
       </c>
       <c r="F19" s="5">
@@ -1877,7 +1878,7 @@
       <c r="G19" s="6">
         <v>2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="6">
         <v>-26.5</v>
       </c>
       <c r="I19" s="5">
@@ -1934,7 +1935,7 @@
       <c r="D20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="6">
         <v>1.3</v>
       </c>
       <c r="F20" s="5">
@@ -1944,7 +1945,7 @@
       <c r="G20" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="6">
         <v>-9.6</v>
       </c>
       <c r="I20" s="5">
@@ -2001,7 +2002,7 @@
       <c r="D21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>-1.2104619999999999</v>
       </c>
       <c r="F21" s="5">
@@ -2011,7 +2012,7 @@
       <c r="G21" s="6">
         <v>15.721</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="6">
         <v>-19.3934</v>
       </c>
       <c r="I21" s="5">
@@ -2068,7 +2069,7 @@
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>-9.9298600000000015</v>
       </c>
       <c r="F22" s="5">
@@ -2078,7 +2079,7 @@
       <c r="G22" s="6">
         <v>10.523</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="6">
         <v>-21.766460000000002</v>
       </c>
       <c r="I22" s="5">
@@ -2135,20 +2136,22 @@
       <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>22</v>
+      <c r="E23" s="6">
+        <v>-3.3359999999999999</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="3"/>
+        <v>3.664205882352941E-3</v>
       </c>
       <c r="G23" s="6">
         <v>9.52</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>22</v>
+      <c r="H23" s="6">
+        <v>-29.35</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0852018518465E-2</v>
       </c>
       <c r="J23" s="3">
         <v>40.817</v>
@@ -2200,7 +2203,7 @@
       <c r="D24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>1.7675399999999999</v>
       </c>
       <c r="F24" s="5">
@@ -2210,7 +2213,7 @@
       <c r="G24" s="6">
         <v>18.658999999999999</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="6">
         <v>-45.725900000000003</v>
       </c>
       <c r="I24" s="5">
@@ -2267,7 +2270,7 @@
       <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="6">
         <v>-0.94016599999999995</v>
       </c>
       <c r="F25" s="5">
@@ -2277,7 +2280,7 @@
       <c r="G25" s="6">
         <v>27.082999999999998</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="6">
         <v>-9.4759599999999988</v>
       </c>
       <c r="I25" s="5">
@@ -2334,7 +2337,7 @@
       <c r="D26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="6">
         <v>-2.3436166666666662</v>
       </c>
       <c r="F26" s="5">
@@ -2344,7 +2347,7 @@
       <c r="G26" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="6">
         <v>-13.326050000000002</v>
       </c>
       <c r="I26" s="5">
@@ -2401,7 +2404,7 @@
       <c r="D27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="6">
         <v>0.35011250000000005</v>
       </c>
       <c r="F27" s="5">
@@ -2411,7 +2414,7 @@
       <c r="G27" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="6">
         <v>-13.493425</v>
       </c>
       <c r="I27" s="5">
@@ -2468,7 +2471,7 @@
       <c r="D28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="6">
         <v>0.78881200000000007</v>
       </c>
       <c r="F28" s="5">
@@ -2478,7 +2481,7 @@
       <c r="G28" s="6">
         <v>19.163</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="6">
         <v>-28.00938</v>
       </c>
       <c r="I28" s="5">
@@ -2535,7 +2538,7 @@
       <c r="D29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="6">
         <v>-1.5775499999999998</v>
       </c>
       <c r="F29" s="5">
@@ -2545,7 +2548,7 @@
       <c r="G29" s="6">
         <v>9.3872</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="6">
         <v>-33.4637125</v>
       </c>
       <c r="I29" s="5">
@@ -2602,7 +2605,7 @@
       <c r="D30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="6">
         <v>14.163140000000002</v>
       </c>
       <c r="F30" s="5">
@@ -2612,7 +2615,7 @@
       <c r="G30" s="6">
         <v>10.678000000000001</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="6">
         <v>-27.616899999999998</v>
       </c>
       <c r="I30" s="5">
@@ -2669,7 +2672,7 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="6">
         <v>2.1924000000000001</v>
       </c>
       <c r="F31" s="5">
@@ -2679,7 +2682,7 @@
       <c r="G31" s="6">
         <v>8.4792000000000005</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="6">
         <v>-11.7986</v>
       </c>
       <c r="I31" s="5">
@@ -2736,7 +2739,7 @@
       <c r="D32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="6">
         <v>1.5505800000000001</v>
       </c>
       <c r="F32" s="5">
@@ -2746,7 +2749,7 @@
       <c r="G32" s="6">
         <v>12.165900000000001</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="6">
         <v>-11.291300000000001</v>
       </c>
       <c r="I32" s="5">
@@ -2803,22 +2806,22 @@
       <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="2">
-        <v>-1.7516750000000001</v>
+      <c r="E33" s="6">
+        <v>1.1354579999999999</v>
       </c>
       <c r="F33" s="5">
         <f t="shared" si="3"/>
-        <v>3.6700306066176471E-3</v>
+        <v>3.6806450661764707E-3</v>
       </c>
       <c r="G33" s="6">
         <v>13.327999999999999</v>
       </c>
-      <c r="H33" s="2">
-        <v>-7.8926999999999996</v>
+      <c r="H33" s="6">
+        <v>-32.518529999999998</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="1"/>
-        <v>1.109191448194953E-2</v>
+        <v>1.0816593858457466E-2</v>
       </c>
       <c r="J33" s="3">
         <v>34.286099999999998</v>
@@ -2870,22 +2873,22 @@
       <c r="D34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="2">
-        <v>4.8876249999999996E-2</v>
+      <c r="E34" s="6">
+        <v>-1.4600500000000001</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="3"/>
-        <v>3.6766502803308823E-3</v>
+        <v>3.6711027573529411E-3</v>
       </c>
       <c r="G34" s="6">
         <v>11.758599999999999</v>
       </c>
-      <c r="H34" s="2">
-        <v>-11.36345</v>
+      <c r="H34" s="6">
+        <v>-12.07649</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="1"/>
-        <v>1.1053110955165453E-2</v>
+        <v>1.104513905665991E-2</v>
       </c>
       <c r="J34" s="3">
         <v>40.331699999999998</v>
@@ -2937,22 +2940,22 @@
       <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2">
-        <v>3.2947499999999996</v>
+      <c r="E35" s="6">
+        <v>3.2405999999999997</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="3"/>
-        <v>3.6885836397058825E-3</v>
+        <v>3.6883845588235294E-3</v>
       </c>
       <c r="G35" s="6">
         <v>7.7305000000000001</v>
       </c>
-      <c r="H35" s="2">
-        <v>-22.567500000000003</v>
+      <c r="H35" s="6">
+        <v>-24.31427</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="1"/>
-        <v>1.092784792721325E-2</v>
+        <v>1.0908318765942454E-2</v>
       </c>
       <c r="J35" s="3">
         <v>59.659599999999998</v>
@@ -3004,7 +3007,7 @@
       <c r="D36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <v>0.36097499999999999</v>
       </c>
       <c r="F36" s="5">
@@ -3014,7 +3017,7 @@
       <c r="G36" s="6">
         <v>11.9566</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="6">
         <v>-12.276412499999999</v>
       </c>
       <c r="I36" s="5">
@@ -3080,7 +3083,7 @@
       <c r="G37" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="6">
         <v>-30.561609999999995</v>
       </c>
       <c r="I37" s="5">
@@ -3146,7 +3149,7 @@
       <c r="G38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="6">
         <v>-29.274849999999997</v>
       </c>
       <c r="I38" s="5">
@@ -3212,7 +3215,7 @@
       <c r="G39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="6">
         <v>-28.428689999999996</v>
       </c>
       <c r="I39" s="5">
@@ -3278,7 +3281,7 @@
       <c r="G40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="6">
         <v>-26.576659999999997</v>
       </c>
       <c r="I40" s="5">
@@ -3344,7 +3347,7 @@
       <c r="G41" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -3409,7 +3412,7 @@
       <c r="G42" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="6">
         <v>-29.848129999999998</v>
       </c>
       <c r="I42" s="5">
@@ -3475,7 +3478,7 @@
       <c r="G43" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="6">
         <v>-28.465210000000003</v>
       </c>
       <c r="I43" s="5">
@@ -3541,7 +3544,7 @@
       <c r="G44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="6">
         <v>-31.612680000000001</v>
       </c>
       <c r="I44" s="5">
@@ -3607,7 +3610,7 @@
       <c r="G45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="6">
         <v>-12.954180000000003</v>
       </c>
       <c r="I45" s="5">
@@ -3673,7 +3676,7 @@
       <c r="G46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="6">
         <v>-11.805139999999998</v>
       </c>
       <c r="I46" s="5">
@@ -3739,7 +3742,7 @@
       <c r="G47" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -3804,7 +3807,7 @@
       <c r="G48" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -3869,7 +3872,7 @@
       <c r="G49" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -3934,7 +3937,7 @@
       <c r="G50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="6">
         <v>-17.7639</v>
       </c>
       <c r="I50" s="5">
@@ -4000,7 +4003,7 @@
       <c r="G51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="6">
         <v>-30.688419999999997</v>
       </c>
       <c r="I51" s="5">
@@ -4066,7 +4069,7 @@
       <c r="G52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="6">
         <v>-29.979620000000004</v>
       </c>
       <c r="I52" s="5">
@@ -4132,7 +4135,7 @@
       <c r="G53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="6">
         <v>-29.804650000000002</v>
       </c>
       <c r="I53" s="5">
@@ -4198,7 +4201,7 @@
       <c r="G54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I54" s="5" t="s">
@@ -4265,7 +4268,7 @@
       <c r="G55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -4332,7 +4335,7 @@
       <c r="G56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I56" s="5" t="s">
